--- a/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83D2A085-1D1D-480D-ADC2-A49ECE128493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6DC10F96-A301-4F94-8302-537088CA9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{7F62FD47-D2CD-4277-A3A9-BC7B76B36073}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Weekly_Revenue </t>
+    <t xml:space="preserve">Loyalty_Checkins </t>
   </si>
   <si>
-    <t xml:space="preserve">Loyalty_Checkins </t>
+    <t xml:space="preserve">WeeklyRevenue </t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -623,6 +623,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -886,15 +895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -910,6 +910,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAD8E7-1D22-4C07-A155-2D754A897FEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -928,14 +936,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3337493B-EC3C-429B-90B2-0A76DC9185D5}">
   <ds:schemaRefs>

--- a/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6DC10F96-A301-4F94-8302-537088CA9DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BFB19855-E6E3-478A-92C4-0BDE3CA24B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{7F62FD47-D2CD-4277-A3A9-BC7B76B36073}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Loyalty_Checkins </t>
   </si>
   <si>
-    <t xml:space="preserve">WeeklyRevenue </t>
+    <t>WeeklyRevenue</t>
   </si>
 </sst>
 </file>
@@ -623,15 +623,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -895,6 +886,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -910,14 +910,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAD8E7-1D22-4C07-A155-2D754A897FEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -936,6 +928,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3337493B-EC3C-429B-90B2-0A76DC9185D5}">
   <ds:schemaRefs>

--- a/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
+++ b/StudentData/Assessments/Unit5/5.1.3/brewedperfection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Assessments/Unit5/5.1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BFB19855-E6E3-478A-92C4-0BDE3CA24B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{2D01FC85-3628-4338-8316-A0EAA077B0E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{7F62FD47-D2CD-4277-A3A9-BC7B76B36073}"/>
   </bookViews>
@@ -41,10 +41,10 @@
     <t>Week</t>
   </si>
   <si>
-    <t xml:space="preserve">Loyalty_Checkins </t>
+    <t>WeeklyRevenue</t>
   </si>
   <si>
-    <t>WeeklyRevenue</t>
+    <t>Loyalty_Checkins</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -446,10 +446,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.4">
@@ -623,6 +623,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DD084E42E705654B9CF1FB4D1B6F86C3" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="537e09eec9479df6b3b9277a829eeea6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cb71b97d-9a65-4f5a-80e4-73af0d9029ad" xmlns:ns3="c7bf0040-ac83-4da7-b072-3c1b65a214b3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="954325e78edeaac226e03e3e0adada46" ns2:_="" ns3:_="">
     <xsd:import namespace="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
@@ -886,15 +895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -910,6 +910,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAD8E7-1D22-4C07-A155-2D754A897FEF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -928,14 +936,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC8011EB-1579-4FDB-96C0-06599920D21C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3337493B-EC3C-429B-90B2-0A76DC9185D5}">
   <ds:schemaRefs>
